--- a/DesignerConfigs/Datas/系统/角色类型.xlsx
+++ b/DesignerConfigs/Datas/系统/角色类型.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\XPlus\DesignerConfigs\Datas\系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54E499-58FF-46B4-AF69-12BA2D453471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF3CE5-A9CF-4EFF-B617-12EA82D1A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roletype" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -258,10 +258,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>list#sep=,),ESchoolType</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>可加入门派</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -323,6 +319,10 @@
   </si>
   <si>
     <t>NamePath</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),ESchoolType</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -872,7 +872,6 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375"/>
     <col min="13" max="13" width="35.140625"/>
     <col min="14" max="14" width="22.7109375"/>
     <col min="15" max="1027" width="11.5703125"/>
@@ -889,16 +888,16 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -907,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75">
@@ -945,7 +944,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75">
@@ -982,7 +981,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>8</v>
@@ -991,10 +990,10 @@
         <v>9</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
@@ -1005,13 +1004,13 @@
         <v>1110</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>34</v>
@@ -1026,7 +1025,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60">
@@ -1037,7 +1036,7 @@
         <v>1120</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1058,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
@@ -1069,7 +1068,7 @@
         <v>1310</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>32</v>
@@ -1090,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
@@ -1101,7 +1100,7 @@
         <v>1320</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>32</v>
@@ -1122,7 +1121,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
@@ -1133,7 +1132,7 @@
         <v>1210</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>33</v>
@@ -1154,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
@@ -1165,7 +1164,7 @@
         <v>1220</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>33</v>
@@ -1186,7 +1185,7 @@
         <v>26</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
